--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.883418776690496</v>
+        <v>3.046857595443726</v>
       </c>
       <c r="B1">
-        <v>2.693625902005033</v>
+        <v>6.31736421585083</v>
       </c>
       <c r="C1">
-        <v>2.772722291627894</v>
+        <v>6.794921398162842</v>
       </c>
       <c r="D1">
-        <v>0.8630891118402396</v>
+        <v>7.268158435821533</v>
       </c>
       <c r="E1">
-        <v>0.6577349529579174</v>
+        <v>4.872618198394775</v>
       </c>
     </row>
   </sheetData>
